--- a/data/pca/factorExposure/factorExposure_2012-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002097688010426799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001912462648157067</v>
+      </c>
+      <c r="C2">
+        <v>0.0284705958180312</v>
+      </c>
+      <c r="D2">
+        <v>-0.004528731562144011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006193062434889449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006867605944791964</v>
+      </c>
+      <c r="C4">
+        <v>0.08296475294893985</v>
+      </c>
+      <c r="D4">
+        <v>-0.06916634779383588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004634948083374654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.014808994908562</v>
+      </c>
+      <c r="C6">
+        <v>0.11654487055048</v>
+      </c>
+      <c r="D6">
+        <v>-0.02318540165328318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00127783031983503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005019186316739346</v>
+      </c>
+      <c r="C7">
+        <v>0.05817561053214008</v>
+      </c>
+      <c r="D7">
+        <v>-0.03479834941656394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001203438836683089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006128926246934788</v>
+      </c>
+      <c r="C8">
+        <v>0.03539764290596424</v>
+      </c>
+      <c r="D8">
+        <v>-0.04074892680322828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001324257134596123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005365880166371947</v>
+      </c>
+      <c r="C9">
+        <v>0.07038054297943122</v>
+      </c>
+      <c r="D9">
+        <v>-0.07556666167796862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002703400526551451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004374267413633374</v>
+      </c>
+      <c r="C10">
+        <v>0.05488466296411616</v>
+      </c>
+      <c r="D10">
+        <v>0.1887594582592345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001557579069513104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005751717294756622</v>
+      </c>
+      <c r="C11">
+        <v>0.07897348802912815</v>
+      </c>
+      <c r="D11">
+        <v>-0.06642117130045561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0008666214492191705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004526402241979054</v>
+      </c>
+      <c r="C12">
+        <v>0.06437186426726386</v>
+      </c>
+      <c r="D12">
+        <v>-0.05216770116680614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001762404823817056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008609015094325528</v>
+      </c>
+      <c r="C13">
+        <v>0.06773906131811222</v>
+      </c>
+      <c r="D13">
+        <v>-0.06247553082145758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001776808802031637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008237948244448918</v>
+      </c>
+      <c r="C14">
+        <v>0.04160171219338128</v>
+      </c>
+      <c r="D14">
+        <v>-0.01390755800601793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001765303938151879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006018956688338107</v>
+      </c>
+      <c r="C15">
+        <v>0.03986860140383798</v>
+      </c>
+      <c r="D15">
+        <v>-0.03029516481479037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0003124548962809149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005172364887570232</v>
+      </c>
+      <c r="C16">
+        <v>0.06377481584898252</v>
+      </c>
+      <c r="D16">
+        <v>-0.05835689942502484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002479966309970435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.0088248886550972</v>
+      </c>
+      <c r="C20">
+        <v>0.06301290889004642</v>
+      </c>
+      <c r="D20">
+        <v>-0.0527523596805077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005620024595370268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009269454951079869</v>
+      </c>
+      <c r="C21">
+        <v>0.01884949936631578</v>
+      </c>
+      <c r="D21">
+        <v>-0.0426685466964631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01908344131535291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006673388239450936</v>
+      </c>
+      <c r="C22">
+        <v>0.08680548607741805</v>
+      </c>
+      <c r="D22">
+        <v>-0.1246578257843446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01875922385211128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006367615933648723</v>
+      </c>
+      <c r="C23">
+        <v>0.0871793756402537</v>
+      </c>
+      <c r="D23">
+        <v>-0.1257811210957071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00207309077637628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005671910072865605</v>
+      </c>
+      <c r="C24">
+        <v>0.07586211028409033</v>
+      </c>
+      <c r="D24">
+        <v>-0.06885793998644002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003498066471501269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00325565793276433</v>
+      </c>
+      <c r="C25">
+        <v>0.07715720665487069</v>
+      </c>
+      <c r="D25">
+        <v>-0.06823591411483443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002288969028076056</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003555802183126848</v>
+      </c>
+      <c r="C26">
+        <v>0.03786195803795455</v>
+      </c>
+      <c r="D26">
+        <v>-0.02567045767251476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00570146175853877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001584630293361089</v>
+      </c>
+      <c r="C28">
+        <v>0.1057729714615712</v>
+      </c>
+      <c r="D28">
+        <v>0.323250107078201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006896285065094696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002751611954360588</v>
+      </c>
+      <c r="C29">
+        <v>0.04736956349857079</v>
+      </c>
+      <c r="D29">
+        <v>-0.01224976648502288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003656713829554006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009435974993253401</v>
+      </c>
+      <c r="C30">
+        <v>0.1407506478441985</v>
+      </c>
+      <c r="D30">
+        <v>-0.1123210342150676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002084820864942962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006362859312271015</v>
+      </c>
+      <c r="C31">
+        <v>0.04301900828702388</v>
+      </c>
+      <c r="D31">
+        <v>-0.03341512734860134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000578495900687522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003770119989809074</v>
+      </c>
+      <c r="C32">
+        <v>0.03976757472469226</v>
+      </c>
+      <c r="D32">
+        <v>-0.02257717677792493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-1.444752425660902e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009053745918609191</v>
+      </c>
+      <c r="C33">
+        <v>0.08794628179753704</v>
+      </c>
+      <c r="D33">
+        <v>-0.06754178392853995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001952345341451921</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004304329739597954</v>
+      </c>
+      <c r="C34">
+        <v>0.05727093355549617</v>
+      </c>
+      <c r="D34">
+        <v>-0.05951599979802087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001890773898466646</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005227373374413594</v>
+      </c>
+      <c r="C35">
+        <v>0.03974834588403132</v>
+      </c>
+      <c r="D35">
+        <v>-0.0204728965112339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004865112158758382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001457749867700143</v>
+      </c>
+      <c r="C36">
+        <v>0.02354908845836691</v>
+      </c>
+      <c r="D36">
+        <v>-0.02762996594640562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003334628658299113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009198975922369993</v>
+      </c>
+      <c r="C38">
+        <v>0.03935324354098443</v>
+      </c>
+      <c r="D38">
+        <v>-0.01371128569730505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01134900190488168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001561890988190761</v>
+      </c>
+      <c r="C39">
+        <v>0.1121995707781615</v>
+      </c>
+      <c r="D39">
+        <v>-0.07769380516699231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003392061741893356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003637784700250721</v>
+      </c>
+      <c r="C40">
+        <v>0.08998087922796799</v>
+      </c>
+      <c r="D40">
+        <v>-0.01817085995730888</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001850333788092331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007174401557928379</v>
+      </c>
+      <c r="C41">
+        <v>0.03906812222831058</v>
+      </c>
+      <c r="D41">
+        <v>-0.04097607706081813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00171914781955536</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003643437926451767</v>
+      </c>
+      <c r="C43">
+        <v>0.05227370326659959</v>
+      </c>
+      <c r="D43">
+        <v>-0.02969758965765889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006649364469477818</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002692684033185207</v>
+      </c>
+      <c r="C44">
+        <v>0.1030045828970581</v>
+      </c>
+      <c r="D44">
+        <v>-0.07019056558514539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001298650938320831</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001631086583793817</v>
+      </c>
+      <c r="C46">
+        <v>0.03257089390151399</v>
+      </c>
+      <c r="D46">
+        <v>-0.0352053549299125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007516706080079845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00229636903323846</v>
+      </c>
+      <c r="C47">
+        <v>0.03474188311248334</v>
+      </c>
+      <c r="D47">
+        <v>-0.02427495130395683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003816905183553764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006953787650123516</v>
+      </c>
+      <c r="C48">
+        <v>0.03015825337762508</v>
+      </c>
+      <c r="D48">
+        <v>-0.03698756486284247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003221232890979956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01707143378335113</v>
+      </c>
+      <c r="C49">
+        <v>0.1899744088201341</v>
+      </c>
+      <c r="D49">
+        <v>-0.003560346645204167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006977217298984658</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003790691206112342</v>
+      </c>
+      <c r="C50">
+        <v>0.0420692644581637</v>
+      </c>
+      <c r="D50">
+        <v>-0.04121519107972611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006017684086619002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004271772713155248</v>
+      </c>
+      <c r="C51">
+        <v>0.02630131266284551</v>
+      </c>
+      <c r="D51">
+        <v>-0.0226558546760008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007242373735841884</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02171751756430331</v>
+      </c>
+      <c r="C53">
+        <v>0.1716869740541759</v>
+      </c>
+      <c r="D53">
+        <v>-0.02159279631046952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004692306123999856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009513381568155666</v>
+      </c>
+      <c r="C54">
+        <v>0.0551018277692519</v>
+      </c>
+      <c r="D54">
+        <v>-0.04335661640184123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001153116614428214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009857648705409963</v>
+      </c>
+      <c r="C55">
+        <v>0.1075245597854811</v>
+      </c>
+      <c r="D55">
+        <v>-0.03864585969157087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007123025180602906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02061270944379719</v>
+      </c>
+      <c r="C56">
+        <v>0.174743864176834</v>
+      </c>
+      <c r="D56">
+        <v>-0.01511660987297243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003126381813113091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0192484249537951</v>
+      </c>
+      <c r="C58">
+        <v>0.1038644740873707</v>
+      </c>
+      <c r="D58">
+        <v>-0.07196260617706175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001162668777881368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01007083585757977</v>
+      </c>
+      <c r="C59">
+        <v>0.1699574959902325</v>
+      </c>
+      <c r="D59">
+        <v>0.3414368893551902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004807490175832886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02470948845090402</v>
+      </c>
+      <c r="C60">
+        <v>0.2268750767622053</v>
+      </c>
+      <c r="D60">
+        <v>-0.01706041754426362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01046618234275008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001781476308672423</v>
+      </c>
+      <c r="C61">
+        <v>0.09391480037631386</v>
+      </c>
+      <c r="D61">
+        <v>-0.05800332416016109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1474267751760451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1504062854004472</v>
+      </c>
+      <c r="C62">
+        <v>0.09888829045898941</v>
+      </c>
+      <c r="D62">
+        <v>-0.01994874128058968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001369939614914955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00669445552902277</v>
+      </c>
+      <c r="C63">
+        <v>0.05258403774610944</v>
+      </c>
+      <c r="D63">
+        <v>-0.03582826292614451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.008275204088687784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01651949170307316</v>
+      </c>
+      <c r="C64">
+        <v>0.1059436441111323</v>
+      </c>
+      <c r="D64">
+        <v>-0.05439501042730313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007090147232215504</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01762947034853996</v>
+      </c>
+      <c r="C65">
+        <v>0.1205849556741574</v>
+      </c>
+      <c r="D65">
+        <v>-0.03154198646644921</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002199748078364269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01309740772812511</v>
+      </c>
+      <c r="C66">
+        <v>0.159845001904417</v>
+      </c>
+      <c r="D66">
+        <v>-0.1092086574594427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006354985639614715</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01558851475676779</v>
+      </c>
+      <c r="C67">
+        <v>0.07170713541231528</v>
+      </c>
+      <c r="D67">
+        <v>-0.02385576550933861</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.003615180275969185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0008574231590577496</v>
+      </c>
+      <c r="C68">
+        <v>0.08770867484677113</v>
+      </c>
+      <c r="D68">
+        <v>0.256809920933691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004476271630168955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00648955265194669</v>
+      </c>
+      <c r="C69">
+        <v>0.05203550041257039</v>
+      </c>
+      <c r="D69">
+        <v>-0.03954009494399995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001133325125754966</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002430988732686346</v>
+      </c>
+      <c r="C70">
+        <v>0.007495279365055336</v>
+      </c>
+      <c r="D70">
+        <v>-0.0004376190964307205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001778952412240054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005569543529990559</v>
+      </c>
+      <c r="C71">
+        <v>0.0921701962304677</v>
+      </c>
+      <c r="D71">
+        <v>0.3012906550006664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.002735644847296776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01720327053872151</v>
+      </c>
+      <c r="C72">
+        <v>0.1565174267634966</v>
+      </c>
+      <c r="D72">
+        <v>-0.01198059786132313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.006804309016963365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.031211978616586</v>
+      </c>
+      <c r="C73">
+        <v>0.281528252209874</v>
+      </c>
+      <c r="D73">
+        <v>-0.05295557531559439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005824876756165035</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001998554625785897</v>
+      </c>
+      <c r="C74">
+        <v>0.1019234369166025</v>
+      </c>
+      <c r="D74">
+        <v>-0.0353775308974603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001530091237815684</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0110045823435033</v>
+      </c>
+      <c r="C75">
+        <v>0.1207629367203321</v>
+      </c>
+      <c r="D75">
+        <v>-0.02916176071788592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01056025498397168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02251015714941217</v>
+      </c>
+      <c r="C76">
+        <v>0.1464261769176403</v>
+      </c>
+      <c r="D76">
+        <v>-0.05791819965435736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003922402333114037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02060886571238986</v>
+      </c>
+      <c r="C77">
+        <v>0.1131847735493254</v>
+      </c>
+      <c r="D77">
+        <v>-0.05603302409115189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005308958278166808</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01462751445856208</v>
+      </c>
+      <c r="C78">
+        <v>0.09757825975565124</v>
+      </c>
+      <c r="D78">
+        <v>-0.08069277292302432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02617482523769148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03861806837719185</v>
+      </c>
+      <c r="C79">
+        <v>0.1555981449821069</v>
+      </c>
+      <c r="D79">
+        <v>-0.03368870164023902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006287012507423802</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009540876909651689</v>
+      </c>
+      <c r="C80">
+        <v>0.03852713386575727</v>
+      </c>
+      <c r="D80">
+        <v>-0.03285995204942208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004247248291114917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01585254930278326</v>
+      </c>
+      <c r="C81">
+        <v>0.1284983345191733</v>
+      </c>
+      <c r="D81">
+        <v>-0.04130666362113063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006737799220516229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01954540452082791</v>
+      </c>
+      <c r="C82">
+        <v>0.1379286269689668</v>
+      </c>
+      <c r="D82">
+        <v>-0.03951703378256312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003834252520097092</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01208656794109694</v>
+      </c>
+      <c r="C83">
+        <v>0.06360974064788202</v>
+      </c>
+      <c r="D83">
+        <v>-0.04618689304173996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.009897088752543214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.0122899084577285</v>
+      </c>
+      <c r="C84">
+        <v>0.03861217868233903</v>
+      </c>
+      <c r="D84">
+        <v>0.008480031227438104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01771101510667723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02903376223676338</v>
+      </c>
+      <c r="C85">
+        <v>0.1228514256497986</v>
+      </c>
+      <c r="D85">
+        <v>-0.04129453047412619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003279906064342317</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003722796070288783</v>
+      </c>
+      <c r="C86">
+        <v>0.04882504110572458</v>
+      </c>
+      <c r="D86">
+        <v>-0.03111043396703407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>4.144119197018353e-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01083168114243921</v>
+      </c>
+      <c r="C87">
+        <v>0.126380172994651</v>
+      </c>
+      <c r="D87">
+        <v>-0.07726552764108389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009314721063118423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002957313881736157</v>
+      </c>
+      <c r="C88">
+        <v>0.06288178120061641</v>
+      </c>
+      <c r="D88">
+        <v>-0.03002001337297457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009543786176191343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002324013516381677</v>
+      </c>
+      <c r="C89">
+        <v>0.1398036887778819</v>
+      </c>
+      <c r="D89">
+        <v>0.3150939574789802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0008169187830230956</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006374444489425622</v>
+      </c>
+      <c r="C90">
+        <v>0.1211854901686756</v>
+      </c>
+      <c r="D90">
+        <v>0.3115362521417612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001957114413386098</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01121341165233215</v>
+      </c>
+      <c r="C91">
+        <v>0.09938338526642516</v>
+      </c>
+      <c r="D91">
+        <v>-0.02863891894349501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004682952367346387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004500469140466109</v>
+      </c>
+      <c r="C92">
+        <v>0.1346787892752312</v>
+      </c>
+      <c r="D92">
+        <v>0.324424972211778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001239823457430206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004028483460432512</v>
+      </c>
+      <c r="C93">
+        <v>0.1061447818843181</v>
+      </c>
+      <c r="D93">
+        <v>0.2975620402831888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009672702804837126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02226022211376082</v>
+      </c>
+      <c r="C94">
+        <v>0.1419098005519894</v>
+      </c>
+      <c r="D94">
+        <v>-0.05444407401727613</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006241327778108391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01654339553489007</v>
+      </c>
+      <c r="C95">
+        <v>0.1203287514284284</v>
+      </c>
+      <c r="D95">
+        <v>-0.067389050896399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0163369178153788</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03670215356885854</v>
+      </c>
+      <c r="C97">
+        <v>0.225237719179959</v>
+      </c>
+      <c r="D97">
+        <v>-0.005941418056139569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01100301253193713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03857413698153594</v>
+      </c>
+      <c r="C98">
+        <v>0.2601986864264504</v>
+      </c>
+      <c r="D98">
+        <v>-0.02812533364074202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9871561061118184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810891038238522</v>
+      </c>
+      <c r="C99">
+        <v>-0.1203497987307183</v>
+      </c>
+      <c r="D99">
+        <v>0.0245779222582398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006168354763615158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002791364918664669</v>
+      </c>
+      <c r="C101">
+        <v>0.04748674464913135</v>
+      </c>
+      <c r="D101">
+        <v>-0.0126070197687478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
